--- a/data/raw/ntca/tiger_population_2006_2022.xlsx
+++ b/data/raw/ntca/tiger_population_2006_2022.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Wide_Format" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Long_Format" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Growth_Summary" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Reserve_Profiles" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="106">
   <si>
     <t xml:space="preserve">Tiger Population Data — India Featured Reserves (2006–2022)</t>
   </si>
@@ -205,6 +206,141 @@
   </si>
   <si>
     <t xml:space="preserve">* Kaziranga ranked separately — 2010-2022 window vs 2006-2022 for all others; not directly comparable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserve Profile Data — 7 Featured Reserves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP_Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR_Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area_sqkm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest_2021_sqkm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest_Pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank_Growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth_Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Ghats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006/2010 pop from Singh &amp; Sen (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate growth; included as stable flagship reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP (1168.66 km²) + MH (738.28 km²); forest area = MP+MH combined; TR year = MP designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-Arid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Tiger 1973 (pre-NP); NP status 1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast / Brahmaputra Floodplain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stable / At capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No 2006 survey; Pop_2006 = NULL; baseline 2010 (106). UNESCO WHS. Highest density reserve in India.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terai Arc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⚠️ Forest area anomaly (−594 km² 2011→2021) likely boundary revision — verify before analysis. Oldest NP in India; first Project Tiger reserve 1973.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique integer key (1–8); ID 5 unused after Pench consolidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year gazetted as National Park (or Wildlife Sanctuary if no NP status)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year designated as Tiger Reserve under Project Tiger / NTCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiger Reserve area from ISFR 2021 Chapter 4 (WII digitized boundaries); Pench = MP+MH combined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total forest cover within TR boundary, ISFR 2021 (VDF+MDF+OF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest_2021_sqkm / Area_sqkm × 100 — formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTCA census estimate 2006; NULL for Kaziranga (no survey conducted)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTCA census estimate 2022 (most recent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop_2022 − Pop_2006 (or Pop_2010 for Kaziranga; see Wide_Format)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-sheet formula from Wide_Format!K — uses correct baseline per reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Annual Growth Rate (%) — cross-sheet from Wide_Format!L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigers per 100 km² in 2022 (Pop_2022 / Area_sqkm × 100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank by Pct_Change among 6 comparable reserves; Kaziranga = * (different baseline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High growth (&gt;50%), Moderate growth (25–50%), Stable (&lt;25% or at carrying capacity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⚠️ Corbett Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest area figure (652 km²) likely reflects boundary revision not forest loss — verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⚠️ Kaziranga Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop_2006 NULL; all calculations use 2010 baseline; density ~8.8/100km² = India's highest</t>
   </si>
 </sst>
 </file>
@@ -216,7 +352,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +415,14 @@
     <font>
       <b val="true"/>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFE65100"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -371,8 +515,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,6 +576,62 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -438,10 +642,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -500,7 +700,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFE65100"/>
       <rgbColor rgb="FF616161"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -708,499 +908,499 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="40"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E3" s="4" t="n">
+      <c r="D3" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>126</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="5" t="n">
         <f aca="false">I3-E3</f>
         <v>82</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="6" t="n">
         <f aca="false">IF(E3=0,"",((I3-E3)/E3)*100)</f>
         <v>120.588235294118</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="7" t="n">
         <f aca="false">IF(E3=0,"",(POWER(I3/E3,1/16)-1)*100)</f>
         <v>5.06883011457091</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E4" s="9" t="n">
+      <c r="D4" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E4" s="10" t="n">
         <v>78</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="10" t="n">
         <v>78</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="10" t="n">
         <v>101</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="10" t="n">
         <v>127</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="10" t="n">
         <v>141</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="10" t="n">
         <f aca="false">I4-E4</f>
         <v>63</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="11" t="n">
         <f aca="false">IF(E4=0,"",((I4-E4)/E4)*100)</f>
         <v>80.7692307692308</v>
       </c>
-      <c r="L4" s="11" t="n">
+      <c r="L4" s="12" t="n">
         <f aca="false">IF(E4=0,"",(POWER(I4/E4,1/16)-1)*100)</f>
         <v>3.76963326205202</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E5" s="4" t="n">
+      <c r="D5" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="5" t="n">
         <f aca="false">I5-E5</f>
         <v>16</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="6" t="n">
         <f aca="false">IF(E5=0,"",((I5-E5)/E5)*100)</f>
         <v>17.9775280898876</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="7" t="n">
         <f aca="false">IF(E5=0,"",(POWER(I5/E5,1/16)-1)*100)</f>
         <v>1.0386315965019</v>
       </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E6" s="9" t="n">
+      <c r="D6" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E6" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="10" t="n">
         <v>43</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="10" t="n">
         <v>61</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="10" t="n">
         <v>77</v>
       </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="10" t="n">
         <f aca="false">I6-E6</f>
         <v>44</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="11" t="n">
         <f aca="false">IF(E6=0,"",((I6-E6)/E6)*100)</f>
         <v>133.333333333333</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="12" t="n">
         <f aca="false">IF(E6=0,"",(POWER(I6/E6,1/16)-1)*100)</f>
         <v>5.438337383322</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E7" s="4" t="n">
+      <c r="D7" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E7" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="5" t="n">
         <f aca="false">I7-E7</f>
         <v>25</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="6" t="n">
         <f aca="false">IF(E7=0,"",((I7-E7)/E7)*100)</f>
         <v>78.125</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="7" t="n">
         <f aca="false">IF(E7=0,"",(POWER(I7/E7,1/16)-1)*100)</f>
         <v>3.67410737975089</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="10" t="n">
         <v>2010</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="9" t="n">
+      <c r="E8" s="14"/>
+      <c r="F8" s="10" t="n">
         <v>106</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="10" t="n">
         <v>103</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="10" t="n">
         <v>104</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="10" t="n">
         <v>104</v>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="10" t="n">
         <f aca="false">I8-F8</f>
         <v>-2</v>
       </c>
-      <c r="K8" s="10" t="n">
+      <c r="K8" s="11" t="n">
         <f aca="false">IF(F8=0,"",((I8-F8)/F8)*100)</f>
         <v>-1.88679245283019</v>
       </c>
-      <c r="L8" s="11" t="n">
+      <c r="L8" s="12" t="n">
         <f aca="false">IF(F8=0,"",(POWER(I8/F8,1/12)-1)*100)</f>
         <v>-0.15860904078826</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E9" s="4" t="n">
+      <c r="D9" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>164</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>214</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>215</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="5" t="n">
         <v>231</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="5" t="n">
         <v>260</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="5" t="n">
         <f aca="false">I9-E9</f>
         <v>96</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="6" t="n">
         <f aca="false">IF(E9=0,"",((I9-E9)/E9)*100)</f>
         <v>58.5365853658537</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="7" t="n">
         <f aca="false">IF(E9=0,"",(POWER(I9/E9,1/16)-1)*100)</f>
         <v>2.92197081068994</v>
       </c>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="M9" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1239,1025 +1439,1025 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F3" s="4" t="n">
+      <c r="D3" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F3" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E4" s="4" t="n">
+      <c r="D4" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E4" s="5" t="n">
         <v>2010</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E5" s="4" t="n">
+      <c r="D5" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="H5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E6" s="4" t="n">
+      <c r="D6" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>126</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="H6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E7" s="4" t="n">
+      <c r="D7" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E7" s="5" t="n">
         <v>2022</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="H7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F8" s="9" t="n">
+      <c r="D8" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F8" s="10" t="n">
         <v>78</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="G8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E9" s="9" t="n">
+      <c r="D9" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E9" s="10" t="n">
         <v>2010</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="10" t="n">
         <v>78</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="H9" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E10" s="9" t="n">
+      <c r="D10" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E10" s="10" t="n">
         <v>2014</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="10" t="n">
         <v>101</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="H10" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E11" s="9" t="n">
+      <c r="D11" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E11" s="10" t="n">
         <v>2018</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="10" t="n">
         <v>127</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="H11" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E12" s="9" t="n">
+      <c r="D12" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E12" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="10" t="n">
         <v>141</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="H12" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F13" s="4" t="n">
+      <c r="D13" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F13" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="G13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E14" s="4" t="n">
+      <c r="D14" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>2010</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="H14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E15" s="4" t="n">
+      <c r="D15" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E15" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="H15" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E16" s="4" t="n">
+      <c r="D16" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="H16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D17" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E17" s="4" t="n">
+      <c r="D17" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E17" s="5" t="n">
         <v>2022</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="H17" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D18" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E18" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F18" s="9" t="n">
+      <c r="D18" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F18" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="G18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E19" s="9" t="n">
+      <c r="D19" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E19" s="10" t="n">
         <v>2010</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="H19" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E20" s="9" t="n">
+      <c r="D20" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E20" s="10" t="n">
         <v>2014</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="10" t="n">
         <v>43</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="H20" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E21" s="9" t="n">
+      <c r="D21" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E21" s="10" t="n">
         <v>2018</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="10" t="n">
         <v>61</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="H21" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D22" s="9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E22" s="9" t="n">
+      <c r="D22" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E22" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="10" t="n">
         <v>77</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="H22" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D23" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F23" s="4" t="n">
+      <c r="D23" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F23" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="G23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E24" s="4" t="n">
+      <c r="D24" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E24" s="5" t="n">
         <v>2010</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="H24" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E25" s="4" t="n">
+      <c r="D25" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E25" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="H25" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E26" s="4" t="n">
+      <c r="D26" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E26" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="H26" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D27" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E27" s="4" t="n">
+      <c r="D27" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E27" s="5" t="n">
         <v>2022</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
+      <c r="H27" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="13" t="n">
+      <c r="C28" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="D28" s="13" t="n">
+      <c r="D28" s="14" t="n">
         <v>2010</v>
       </c>
-      <c r="E28" s="13" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
+      <c r="E28" s="14" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="10" t="n">
         <v>2010</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="10" t="n">
         <v>2010</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="10" t="n">
         <v>106</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="G29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="10" t="n">
         <v>2010</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="10" t="n">
         <v>2014</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="10" t="n">
         <v>103</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+      <c r="H30" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="9" t="n">
+      <c r="C31" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D31" s="10" t="n">
         <v>2010</v>
       </c>
-      <c r="E31" s="9" t="n">
+      <c r="E31" s="10" t="n">
         <v>2018</v>
       </c>
-      <c r="F31" s="9" t="n">
+      <c r="F31" s="10" t="n">
         <v>104</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="H31" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="9" t="n">
+      <c r="C32" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D32" s="10" t="n">
         <v>2010</v>
       </c>
-      <c r="E32" s="9" t="n">
+      <c r="E32" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="F32" s="9" t="n">
+      <c r="F32" s="10" t="n">
         <v>104</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="H32" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D33" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E33" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F33" s="4" t="n">
+      <c r="D33" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F33" s="5" t="n">
         <v>164</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="G33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D34" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E34" s="4" t="n">
+      <c r="D34" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E34" s="5" t="n">
         <v>2010</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="5" t="n">
         <v>214</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="H34" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="4" t="n">
+      <c r="C35" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D35" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E35" s="4" t="n">
+      <c r="D35" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E35" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="5" t="n">
         <v>215</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="H35" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="4" t="n">
+      <c r="C36" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D36" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E36" s="4" t="n">
+      <c r="D36" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E36" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="5" t="n">
         <v>231</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="H36" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D37" s="4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E37" s="4" t="n">
+      <c r="D37" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E37" s="5" t="n">
         <v>2022</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="5" t="n">
         <v>260</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="s">
+      <c r="H37" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16" t="s">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2291,353 +2491,353 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="str">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="str">
         <f aca="false">Wide_Format!A3</f>
         <v>Bandipur National Park</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <f aca="false">Wide_Format!B3</f>
         <v>Karnataka</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <f aca="false">Wide_Format!C3</f>
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <f aca="false">Wide_Format!D3</f>
         <v>2006</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <f aca="false">Wide_Format!J3</f>
         <v>82</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="6" t="n">
         <f aca="false">Wide_Format!K3</f>
         <v>120.588235294118</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <f aca="false">Wide_Format!L3</f>
         <v>5.06883011457091</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="5" t="n">
         <f aca="false">IF(B3="Assam","*",RANK(H3,H3:H9,0))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="str">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="str">
         <f aca="false">Wide_Format!A4</f>
         <v>Nagarahole National Park</v>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="10" t="str">
         <f aca="false">Wide_Format!B4</f>
         <v>Karnataka</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="10" t="n">
         <f aca="false">Wide_Format!C4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="10" t="n">
         <f aca="false">Wide_Format!D4</f>
         <v>2006</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="10" t="n">
         <v>78</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="10" t="n">
         <v>141</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="10" t="n">
         <f aca="false">Wide_Format!J4</f>
         <v>63</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="11" t="n">
         <f aca="false">Wide_Format!K4</f>
         <v>80.7692307692308</v>
       </c>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="12" t="n">
         <f aca="false">Wide_Format!L4</f>
         <v>3.76963326205202</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="10" t="n">
         <f aca="false">IF(B4="Assam","*",RANK(H4,H3:H9,0))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="str">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="str">
         <f aca="false">Wide_Format!A5</f>
         <v>Kanha National Park</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="5" t="str">
         <f aca="false">Wide_Format!B5</f>
         <v>Madhya Pradesh</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <f aca="false">Wide_Format!C5</f>
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <f aca="false">Wide_Format!D5</f>
         <v>2006</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <f aca="false">Wide_Format!J5</f>
         <v>16</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="6" t="n">
         <f aca="false">Wide_Format!K5</f>
         <v>17.9775280898876</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="7" t="n">
         <f aca="false">Wide_Format!L5</f>
         <v>1.0386315965019</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="5" t="n">
         <f aca="false">IF(B5="Assam","*",RANK(H5,H3:H9,0))</f>
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="str">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="str">
         <f aca="false">Wide_Format!A6</f>
         <v>Pench Tiger Reserve (Combined)</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="10" t="str">
         <f aca="false">Wide_Format!B6</f>
         <v>MP / Maharashtra</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <f aca="false">Wide_Format!C6</f>
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="10" t="n">
         <f aca="false">Wide_Format!D6</f>
         <v>2006</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="10" t="n">
         <v>77</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="10" t="n">
         <f aca="false">Wide_Format!J6</f>
         <v>44</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="11" t="n">
         <f aca="false">Wide_Format!K6</f>
         <v>133.333333333333</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="12" t="n">
         <f aca="false">Wide_Format!L6</f>
         <v>5.438337383322</v>
       </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="10" t="n">
         <f aca="false">IF(B6="Assam","*",RANK(H6,H3:H9,0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="str">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="str">
         <f aca="false">Wide_Format!A7</f>
         <v>Ranthambore Tiger Reserve</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="5" t="str">
         <f aca="false">Wide_Format!B7</f>
         <v>Rajasthan</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <f aca="false">Wide_Format!C7</f>
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <f aca="false">Wide_Format!D7</f>
         <v>2006</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <f aca="false">Wide_Format!J7</f>
         <v>25</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="6" t="n">
         <f aca="false">Wide_Format!K7</f>
         <v>78.125</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="7" t="n">
         <f aca="false">Wide_Format!L7</f>
         <v>3.67410737975089</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="5" t="n">
         <f aca="false">IF(B7="Assam","*",RANK(H7,H3:H9,0))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="str">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="str">
         <f aca="false">Wide_Format!A8</f>
         <v>Kaziranga National Park</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="10" t="str">
         <f aca="false">Wide_Format!B8</f>
         <v>Assam</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="10" t="n">
         <f aca="false">Wide_Format!C8</f>
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="10" t="n">
         <f aca="false">Wide_Format!D8</f>
         <v>2010</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="10" t="n">
         <v>106</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="10" t="n">
         <v>104</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="10" t="n">
         <f aca="false">Wide_Format!J8</f>
         <v>-2</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="11" t="n">
         <f aca="false">Wide_Format!K8</f>
         <v>-1.88679245283019</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="12" t="n">
         <f aca="false">Wide_Format!L8</f>
         <v>-0.15860904078826</v>
       </c>
-      <c r="J8" s="9" t="str">
+      <c r="J8" s="10" t="str">
         <f aca="false">IF(B8="Assam","*",RANK(H8,H3:H9,0))</f>
         <v>*</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="str">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="str">
         <f aca="false">Wide_Format!A9</f>
         <v>Jim Corbett National Park</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="5" t="str">
         <f aca="false">Wide_Format!B9</f>
         <v>Uttarakhand</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <f aca="false">Wide_Format!C9</f>
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <f aca="false">Wide_Format!D9</f>
         <v>2006</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>164</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>260</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <f aca="false">Wide_Format!J9</f>
         <v>96</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="6" t="n">
         <f aca="false">Wide_Format!K9</f>
         <v>58.5365853658537</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="7" t="n">
         <f aca="false">Wide_Format!L9</f>
         <v>2.92197081068994</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="5" t="n">
         <f aca="false">IF(B9="Assam","*",RANK(H9,H3:H9,0))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2652,4 +2852,829 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="21" t="n">
+        <v>1974</v>
+      </c>
+      <c r="F3" s="21" t="n">
+        <v>1974</v>
+      </c>
+      <c r="G3" s="21" t="n">
+        <v>1784.47</v>
+      </c>
+      <c r="H3" s="21" t="n">
+        <v>1497.63</v>
+      </c>
+      <c r="I3" s="22" t="n">
+        <f aca="false">IF(G3&gt;0,H3/G3*100,"")</f>
+        <v>83.9257594691981</v>
+      </c>
+      <c r="J3" s="21" t="n">
+        <v>68</v>
+      </c>
+      <c r="K3" s="21" t="n">
+        <v>150</v>
+      </c>
+      <c r="L3" s="21" t="n">
+        <f aca="false">K3-J3</f>
+        <v>82</v>
+      </c>
+      <c r="M3" s="22" t="n">
+        <f aca="false">Wide_Format!K3</f>
+        <v>120.588235294118</v>
+      </c>
+      <c r="N3" s="23" t="n">
+        <f aca="false">Wide_Format!L3</f>
+        <v>5.06883011457091</v>
+      </c>
+      <c r="O3" s="23" t="n">
+        <f aca="false">IF(G3&gt;0,K3/G3*100,"")</f>
+        <v>8.40585720129787</v>
+      </c>
+      <c r="P3" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="24" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F4" s="24" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G4" s="24" t="n">
+        <v>1152.74</v>
+      </c>
+      <c r="H4" s="24" t="n">
+        <v>970.71</v>
+      </c>
+      <c r="I4" s="25" t="n">
+        <f aca="false">IF(G4&gt;0,H4/G4*100,"")</f>
+        <v>84.2089282925898</v>
+      </c>
+      <c r="J4" s="24" t="n">
+        <v>78</v>
+      </c>
+      <c r="K4" s="24" t="n">
+        <v>141</v>
+      </c>
+      <c r="L4" s="24" t="n">
+        <f aca="false">K4-J4</f>
+        <v>63</v>
+      </c>
+      <c r="M4" s="25" t="n">
+        <f aca="false">Wide_Format!K4</f>
+        <v>80.7692307692308</v>
+      </c>
+      <c r="N4" s="26" t="n">
+        <f aca="false">Wide_Format!L4</f>
+        <v>3.76963326205202</v>
+      </c>
+      <c r="O4" s="26" t="n">
+        <f aca="false">IF(G4&gt;0,K4/G4*100,"")</f>
+        <v>12.231726148134</v>
+      </c>
+      <c r="P4" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="21" t="n">
+        <v>1955</v>
+      </c>
+      <c r="F5" s="21" t="n">
+        <v>1974</v>
+      </c>
+      <c r="G5" s="21" t="n">
+        <v>2071.51</v>
+      </c>
+      <c r="H5" s="21" t="n">
+        <v>1886.37</v>
+      </c>
+      <c r="I5" s="22" t="n">
+        <f aca="false">IF(G5&gt;0,H5/G5*100,"")</f>
+        <v>91.0625582304696</v>
+      </c>
+      <c r="J5" s="21" t="n">
+        <v>89</v>
+      </c>
+      <c r="K5" s="21" t="n">
+        <v>105</v>
+      </c>
+      <c r="L5" s="21" t="n">
+        <f aca="false">K5-J5</f>
+        <v>16</v>
+      </c>
+      <c r="M5" s="22" t="n">
+        <f aca="false">Wide_Format!K5</f>
+        <v>17.9775280898876</v>
+      </c>
+      <c r="N5" s="23" t="n">
+        <f aca="false">Wide_Format!L5</f>
+        <v>1.0386315965019</v>
+      </c>
+      <c r="O5" s="23" t="n">
+        <f aca="false">IF(G5&gt;0,K5/G5*100,"")</f>
+        <v>5.06876626229176</v>
+      </c>
+      <c r="P5" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="24" t="n">
+        <v>1975</v>
+      </c>
+      <c r="F6" s="24" t="n">
+        <v>1992</v>
+      </c>
+      <c r="G6" s="24" t="n">
+        <v>1906.94</v>
+      </c>
+      <c r="H6" s="24" t="n">
+        <v>1695.66</v>
+      </c>
+      <c r="I6" s="25" t="n">
+        <f aca="false">IF(G6&gt;0,H6/G6*100,"")</f>
+        <v>88.9204694431917</v>
+      </c>
+      <c r="J6" s="24" t="n">
+        <v>33</v>
+      </c>
+      <c r="K6" s="24" t="n">
+        <v>77</v>
+      </c>
+      <c r="L6" s="24" t="n">
+        <f aca="false">K6-J6</f>
+        <v>44</v>
+      </c>
+      <c r="M6" s="25" t="n">
+        <f aca="false">Wide_Format!K6</f>
+        <v>133.333333333333</v>
+      </c>
+      <c r="N6" s="26" t="n">
+        <f aca="false">Wide_Format!L6</f>
+        <v>5.438337383322</v>
+      </c>
+      <c r="O6" s="26" t="n">
+        <f aca="false">IF(G6&gt;0,K6/G6*100,"")</f>
+        <v>4.0378826811541</v>
+      </c>
+      <c r="P6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="21" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>1973</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <v>1765.57</v>
+      </c>
+      <c r="H7" s="21" t="n">
+        <v>1360.3</v>
+      </c>
+      <c r="I7" s="22" t="n">
+        <f aca="false">IF(G7&gt;0,H7/G7*100,"")</f>
+        <v>77.0459398381259</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <v>32</v>
+      </c>
+      <c r="K7" s="21" t="n">
+        <v>57</v>
+      </c>
+      <c r="L7" s="21" t="n">
+        <f aca="false">K7-J7</f>
+        <v>25</v>
+      </c>
+      <c r="M7" s="22" t="n">
+        <f aca="false">Wide_Format!K7</f>
+        <v>78.125</v>
+      </c>
+      <c r="N7" s="23" t="n">
+        <f aca="false">Wide_Format!L7</f>
+        <v>3.67410737975089</v>
+      </c>
+      <c r="O7" s="23" t="n">
+        <f aca="false">IF(G7&gt;0,K7/G7*100,"")</f>
+        <v>3.22841915075585</v>
+      </c>
+      <c r="P7" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="24" t="n">
+        <v>1974</v>
+      </c>
+      <c r="F8" s="24" t="n">
+        <v>2006</v>
+      </c>
+      <c r="G8" s="24" t="n">
+        <v>1180.35</v>
+      </c>
+      <c r="H8" s="24" t="n">
+        <v>1180.16</v>
+      </c>
+      <c r="I8" s="25" t="n">
+        <f aca="false">IF(G8&gt;0,H8/G8*100,"")</f>
+        <v>99.9839030795951</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="24" t="n">
+        <v>104</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25" t="n">
+        <f aca="false">Wide_Format!K8</f>
+        <v>-1.88679245283019</v>
+      </c>
+      <c r="N8" s="26" t="n">
+        <f aca="false">Wide_Format!L8</f>
+        <v>-0.15860904078826</v>
+      </c>
+      <c r="O8" s="26" t="n">
+        <f aca="false">IF(G8&gt;0,K8/G8*100,"")</f>
+        <v>8.81094590587538</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="21" t="n">
+        <v>1936</v>
+      </c>
+      <c r="F9" s="21" t="n">
+        <v>1974</v>
+      </c>
+      <c r="G9" s="21" t="n">
+        <v>1462.66</v>
+      </c>
+      <c r="H9" s="21" t="n">
+        <v>652.38</v>
+      </c>
+      <c r="I9" s="22" t="n">
+        <f aca="false">IF(G9&gt;0,H9/G9*100,"")</f>
+        <v>44.6022999193251</v>
+      </c>
+      <c r="J9" s="21" t="n">
+        <v>164</v>
+      </c>
+      <c r="K9" s="21" t="n">
+        <v>260</v>
+      </c>
+      <c r="L9" s="21" t="n">
+        <f aca="false">K9-J9</f>
+        <v>96</v>
+      </c>
+      <c r="M9" s="22" t="n">
+        <f aca="false">Wide_Format!K9</f>
+        <v>58.5365853658537</v>
+      </c>
+      <c r="N9" s="23" t="n">
+        <f aca="false">Wide_Format!L9</f>
+        <v>2.92197081068994</v>
+      </c>
+      <c r="O9" s="23" t="n">
+        <f aca="false">IF(G9&gt;0,K9/G9*100,"")</f>
+        <v>17.7758330712537</v>
+      </c>
+      <c r="P9" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>